--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nxph1-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nxph1-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Nrxn1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,96 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N2">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.4304832E-05</v>
+        <v>0.00016521406</v>
       </c>
       <c r="R2">
-        <v>0.000398743488</v>
+        <v>0.00148692654</v>
       </c>
       <c r="S2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1115771572706054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.006797999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.020394</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N3">
-        <v>0.155681</v>
-      </c>
-      <c r="O3">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P3">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q3">
-        <v>0.000352773146</v>
-      </c>
-      <c r="R3">
-        <v>0.003174958314</v>
-      </c>
-      <c r="S3">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="T3">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
